--- a/dashboard/text.xlsx
+++ b/dashboard/text.xlsx
@@ -513,7 +513,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AFG</t>
+          <t>AFG</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ALB</t>
+          <t>ALB</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DZA</t>
+          <t>DZA</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AND</t>
+          <t>AND</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AGO</t>
+          <t>AGO</t>
         </is>
       </c>
     </row>
@@ -689,7 +689,7 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AIA</t>
+          <t>AIA</t>
         </is>
       </c>
     </row>
@@ -725,7 +725,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ATG</t>
+          <t>ATG</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ARG</t>
+          <t>ARG</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ARM</t>
+          <t>ARM</t>
         </is>
       </c>
     </row>
@@ -833,7 +833,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ABW</t>
+          <t>ABW</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AUS</t>
+          <t>AUS</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AUT</t>
+          <t>AUT</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AZE</t>
+          <t>AZE</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BHS</t>
+          <t>BHS</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BHR</t>
+          <t>BHR</t>
         </is>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BGD</t>
+          <t>BGD</t>
         </is>
       </c>
     </row>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BRB</t>
+          <t>BRB</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BLR</t>
+          <t>BLR</t>
         </is>
       </c>
     </row>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BEL</t>
+          <t>BEL</t>
         </is>
       </c>
     </row>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BLZ</t>
+          <t>BLZ</t>
         </is>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BEN</t>
+          <t>BEN</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BMU</t>
+          <t>BMU</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BTN</t>
+          <t>BTN</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOL</t>
+          <t>BOL</t>
         </is>
       </c>
     </row>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BIH</t>
+          <t>BIH</t>
         </is>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BWA</t>
+          <t>BWA</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BRA</t>
+          <t>BRA</t>
         </is>
       </c>
     </row>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VGB</t>
+          <t>VGB</t>
         </is>
       </c>
     </row>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BRN</t>
+          <t>BRN</t>
         </is>
       </c>
     </row>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BGR</t>
+          <t>BGR</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BFA</t>
+          <t>BFA</t>
         </is>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BDI</t>
+          <t>BDI</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CPV</t>
+          <t>CPV</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KHM</t>
+          <t>KHM</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CMR</t>
+          <t>CMR</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CAN</t>
+          <t>CAN</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ANT</t>
+          <t>ANT</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CYM</t>
+          <t>CYM</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CAF</t>
+          <t>CAF</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TCD</t>
+          <t>TCD</t>
         </is>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CHL</t>
+          <t>CHL</t>
         </is>
       </c>
     </row>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CHN</t>
+          <t>CHN</t>
         </is>
       </c>
     </row>
@@ -2009,7 +2009,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HKG</t>
+          <t>HKG</t>
         </is>
       </c>
     </row>
@@ -2041,7 +2041,7 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MAC</t>
+          <t>MAC</t>
         </is>
       </c>
     </row>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> COL</t>
+          <t>COL</t>
         </is>
       </c>
     </row>
@@ -2113,7 +2113,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> COM</t>
+          <t>COM</t>
         </is>
       </c>
     </row>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> COG</t>
+          <t>COG</t>
         </is>
       </c>
     </row>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CRI</t>
+          <t>CRI</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CIV</t>
+          <t>CIV</t>
         </is>
       </c>
     </row>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HRV</t>
+          <t>HRV</t>
         </is>
       </c>
     </row>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CUB</t>
+          <t>CUB</t>
         </is>
       </c>
     </row>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CYP</t>
+          <t>CYP</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CZE</t>
+          <t>CZE</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> COD</t>
+          <t>COD</t>
         </is>
       </c>
     </row>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DNK</t>
+          <t>DNK</t>
         </is>
       </c>
     </row>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DJI</t>
+          <t>DJI</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DMA</t>
+          <t>DMA</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DOM</t>
+          <t>DOM</t>
         </is>
       </c>
     </row>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ECU</t>
+          <t>ECU</t>
         </is>
       </c>
     </row>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EGY</t>
+          <t>EGY</t>
         </is>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SLV</t>
+          <t>SLV</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GNQ</t>
+          <t>GNQ</t>
         </is>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ERI</t>
+          <t>ERI</t>
         </is>
       </c>
     </row>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EST</t>
+          <t>EST</t>
         </is>
       </c>
     </row>
@@ -2789,7 +2789,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ETH</t>
+          <t>ETH</t>
         </is>
       </c>
     </row>
@@ -2821,7 +2821,7 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRO</t>
+          <t>FRO</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FLK</t>
+          <t>FLK</t>
         </is>
       </c>
     </row>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FJI</t>
+          <t>FJI</t>
         </is>
       </c>
     </row>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FIN</t>
+          <t>FIN</t>
         </is>
       </c>
     </row>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRA</t>
+          <t>FRA</t>
         </is>
       </c>
     </row>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GUF</t>
+          <t>GUF</t>
         </is>
       </c>
     </row>
@@ -3029,7 +3029,7 @@
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PYF</t>
+          <t>PYF</t>
         </is>
       </c>
     </row>
@@ -3065,7 +3065,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GAB</t>
+          <t>GAB</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GMB</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GEO</t>
+          <t>GEO</t>
         </is>
       </c>
     </row>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DEU</t>
+          <t>DEU</t>
         </is>
       </c>
     </row>
@@ -3209,7 +3209,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GHA</t>
+          <t>GHA</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GIB</t>
+          <t>GIB</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GRC</t>
+          <t>GRC</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GRL</t>
+          <t>GRL</t>
         </is>
       </c>
     </row>
@@ -3341,7 +3341,7 @@
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GRD</t>
+          <t>GRD</t>
         </is>
       </c>
     </row>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GLP</t>
+          <t>GLP</t>
         </is>
       </c>
     </row>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GTM</t>
+          <t>GTM</t>
         </is>
       </c>
     </row>
@@ -3449,7 +3449,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GIN</t>
+          <t>GIN</t>
         </is>
       </c>
     </row>
@@ -3485,7 +3485,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GNB</t>
+          <t>GNB</t>
         </is>
       </c>
     </row>
@@ -3521,7 +3521,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GUY</t>
+          <t>GUY</t>
         </is>
       </c>
     </row>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HTI</t>
+          <t>HTI</t>
         </is>
       </c>
     </row>
@@ -3589,7 +3589,7 @@
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VAT</t>
+          <t>VAT</t>
         </is>
       </c>
     </row>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HND</t>
+          <t>HND</t>
         </is>
       </c>
     </row>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HUN</t>
+          <t>HUN</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ISL</t>
+          <t>ISL</t>
         </is>
       </c>
     </row>
@@ -3733,7 +3733,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IND</t>
+          <t>IND</t>
         </is>
       </c>
     </row>
@@ -3769,7 +3769,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IDN</t>
+          <t>IDN</t>
         </is>
       </c>
     </row>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IRN</t>
+          <t>IRN</t>
         </is>
       </c>
     </row>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IRQ</t>
+          <t>IRQ</t>
         </is>
       </c>
     </row>
@@ -3877,7 +3877,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IRL</t>
+          <t>IRL</t>
         </is>
       </c>
     </row>
@@ -3913,7 +3913,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IMN</t>
+          <t>IMN</t>
         </is>
       </c>
     </row>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ISR</t>
+          <t>ISR</t>
         </is>
       </c>
     </row>
@@ -3985,7 +3985,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ITA</t>
+          <t>ITA</t>
         </is>
       </c>
     </row>
@@ -4021,7 +4021,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAM</t>
+          <t>JAM</t>
         </is>
       </c>
     </row>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JPN</t>
+          <t>JPN</t>
         </is>
       </c>
     </row>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JOR</t>
+          <t>JOR</t>
         </is>
       </c>
     </row>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KAZ</t>
+          <t>KAZ</t>
         </is>
       </c>
     </row>
@@ -4165,7 +4165,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KEN</t>
+          <t>KEN</t>
         </is>
       </c>
     </row>
@@ -4201,7 +4201,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KWT</t>
+          <t>KWT</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KGZ</t>
+          <t>KGZ</t>
         </is>
       </c>
     </row>
@@ -4269,7 +4269,7 @@
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LAO</t>
+          <t>LAO</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LVA</t>
+          <t>LVA</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LBN</t>
+          <t>LBN</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LSO</t>
+          <t>LSO</t>
         </is>
       </c>
     </row>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LBR</t>
+          <t>LBR</t>
         </is>
       </c>
     </row>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LBY</t>
+          <t>LBY</t>
         </is>
       </c>
     </row>
@@ -4485,7 +4485,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIE</t>
+          <t>LIE</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LTU</t>
+          <t>LTU</t>
         </is>
       </c>
     </row>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LUX</t>
+          <t>LUX</t>
         </is>
       </c>
     </row>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MKD</t>
+          <t>MKD</t>
         </is>
       </c>
     </row>
@@ -4629,7 +4629,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MDG</t>
+          <t>MDG</t>
         </is>
       </c>
     </row>
@@ -4665,7 +4665,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MWI</t>
+          <t>MWI</t>
         </is>
       </c>
     </row>
@@ -4701,7 +4701,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MYS</t>
+          <t>MYS</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MDV</t>
+          <t>MDV</t>
         </is>
       </c>
     </row>
@@ -4773,7 +4773,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MLI</t>
+          <t>MLI</t>
         </is>
       </c>
     </row>
@@ -4809,7 +4809,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MLT</t>
+          <t>MLT</t>
         </is>
       </c>
     </row>
@@ -4845,7 +4845,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MTQ</t>
+          <t>MTQ</t>
         </is>
       </c>
     </row>
@@ -4881,7 +4881,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MRT</t>
+          <t>MRT</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MUS</t>
+          <t>MUS</t>
         </is>
       </c>
     </row>
@@ -4953,7 +4953,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MYT</t>
+          <t>MYT</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MEX</t>
+          <t>MEX</t>
         </is>
       </c>
     </row>
@@ -5025,7 +5025,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MDA</t>
+          <t>MDA</t>
         </is>
       </c>
     </row>
@@ -5061,7 +5061,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MCO</t>
+          <t>MCO</t>
         </is>
       </c>
     </row>
@@ -5093,7 +5093,7 @@
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MNG</t>
+          <t>MNG</t>
         </is>
       </c>
     </row>
@@ -5129,7 +5129,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MNE</t>
+          <t>MNE</t>
         </is>
       </c>
     </row>
@@ -5165,7 +5165,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MSR</t>
+          <t>MSR</t>
         </is>
       </c>
     </row>
@@ -5201,7 +5201,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MAR</t>
+          <t>MAR</t>
         </is>
       </c>
     </row>
@@ -5237,7 +5237,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MOZ</t>
+          <t>MOZ</t>
         </is>
       </c>
     </row>
@@ -5273,7 +5273,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MMR</t>
+          <t>MMR</t>
         </is>
       </c>
     </row>
@@ -5309,7 +5309,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NAM</t>
+          <t>NAM</t>
         </is>
       </c>
     </row>
@@ -5345,7 +5345,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NPL</t>
+          <t>NPL</t>
         </is>
       </c>
     </row>
@@ -5377,7 +5377,7 @@
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NLD</t>
+          <t>NLD</t>
         </is>
       </c>
     </row>
@@ -5409,7 +5409,7 @@
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NCL</t>
+          <t>NCL</t>
         </is>
       </c>
     </row>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NZL</t>
+          <t>NZL</t>
         </is>
       </c>
     </row>
@@ -5481,7 +5481,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NIC</t>
+          <t>NIC</t>
         </is>
       </c>
     </row>
@@ -5517,7 +5517,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NER</t>
+          <t>NER</t>
         </is>
       </c>
     </row>
@@ -5553,7 +5553,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NGA</t>
+          <t>NGA</t>
         </is>
       </c>
     </row>
@@ -5589,7 +5589,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NOR</t>
+          <t>NOR</t>
         </is>
       </c>
     </row>
@@ -5625,7 +5625,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OMN</t>
+          <t>OMN</t>
         </is>
       </c>
     </row>
@@ -5661,7 +5661,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PAK</t>
+          <t>PAK</t>
         </is>
       </c>
     </row>
@@ -5697,7 +5697,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PAN</t>
+          <t>PAN</t>
         </is>
       </c>
     </row>
@@ -5733,7 +5733,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PNG</t>
+          <t>PNG</t>
         </is>
       </c>
     </row>
@@ -5769,7 +5769,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRY</t>
+          <t>PRY</t>
         </is>
       </c>
     </row>
@@ -5805,7 +5805,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PER</t>
+          <t>PER</t>
         </is>
       </c>
     </row>
@@ -5841,7 +5841,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PHL</t>
+          <t>PHL</t>
         </is>
       </c>
     </row>
@@ -5877,7 +5877,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> POL</t>
+          <t>POL</t>
         </is>
       </c>
     </row>
@@ -5913,7 +5913,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRT</t>
+          <t>PRT</t>
         </is>
       </c>
     </row>
@@ -5949,7 +5949,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> QAT</t>
+          <t>QAT</t>
         </is>
       </c>
     </row>
@@ -5985,7 +5985,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> REU</t>
+          <t>REU</t>
         </is>
       </c>
     </row>
@@ -6021,7 +6021,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ROU</t>
+          <t>ROU</t>
         </is>
       </c>
     </row>
@@ -6057,7 +6057,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RUS</t>
+          <t>RUS</t>
         </is>
       </c>
     </row>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RWA</t>
+          <t>RWA</t>
         </is>
       </c>
     </row>
@@ -6125,7 +6125,7 @@
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KNA</t>
+          <t>KNA</t>
         </is>
       </c>
     </row>
@@ -6157,7 +6157,7 @@
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LCA</t>
+          <t>LCA</t>
         </is>
       </c>
     </row>
@@ -6189,7 +6189,7 @@
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SPM</t>
+          <t>SPM</t>
         </is>
       </c>
     </row>
@@ -6221,7 +6221,7 @@
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VCT</t>
+          <t>VCT</t>
         </is>
       </c>
     </row>
@@ -6257,7 +6257,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SMR</t>
+          <t>SMR</t>
         </is>
       </c>
     </row>
@@ -6293,7 +6293,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> STP</t>
+          <t>STP</t>
         </is>
       </c>
     </row>
@@ -6329,7 +6329,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SAU</t>
+          <t>SAU</t>
         </is>
       </c>
     </row>
@@ -6365,7 +6365,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SEN</t>
+          <t>SEN</t>
         </is>
       </c>
     </row>
@@ -6401,7 +6401,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SRB</t>
+          <t>SRB</t>
         </is>
       </c>
     </row>
@@ -6433,7 +6433,7 @@
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SYC</t>
+          <t>SYC</t>
         </is>
       </c>
     </row>
@@ -6469,7 +6469,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SLE</t>
+          <t>SLE</t>
         </is>
       </c>
     </row>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SGP</t>
+          <t>SGP</t>
         </is>
       </c>
     </row>
@@ -6541,7 +6541,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SVK</t>
+          <t>SVK</t>
         </is>
       </c>
     </row>
@@ -6577,7 +6577,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SVN</t>
+          <t>SVN</t>
         </is>
       </c>
     </row>
@@ -6613,7 +6613,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SOM</t>
+          <t>SOM</t>
         </is>
       </c>
     </row>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ZAF</t>
+          <t>ZAF</t>
         </is>
       </c>
     </row>
@@ -6685,7 +6685,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KOR</t>
+          <t>KOR</t>
         </is>
       </c>
     </row>
@@ -6721,7 +6721,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SSD</t>
+          <t>SSD</t>
         </is>
       </c>
     </row>
@@ -6753,7 +6753,7 @@
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ESP</t>
+          <t>ESP</t>
         </is>
       </c>
     </row>
@@ -6789,7 +6789,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LKA</t>
+          <t>LKA</t>
         </is>
       </c>
     </row>
@@ -6825,7 +6825,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSE</t>
+          <t>PSE</t>
         </is>
       </c>
     </row>
@@ -6861,7 +6861,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SDN</t>
+          <t>SDN</t>
         </is>
       </c>
     </row>
@@ -6897,7 +6897,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUR</t>
+          <t>SUR</t>
         </is>
       </c>
     </row>
@@ -6933,7 +6933,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SWZ</t>
+          <t>SWZ</t>
         </is>
       </c>
     </row>
@@ -6965,7 +6965,7 @@
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SWE</t>
+          <t>SWE</t>
         </is>
       </c>
     </row>
@@ -7001,7 +7001,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CHE</t>
+          <t>CHE</t>
         </is>
       </c>
     </row>
@@ -7037,7 +7037,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SYR</t>
+          <t>SYR</t>
         </is>
       </c>
     </row>
@@ -7073,7 +7073,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TWN</t>
+          <t>TWN</t>
         </is>
       </c>
     </row>
@@ -7109,7 +7109,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TJK</t>
+          <t>TJK</t>
         </is>
       </c>
     </row>
@@ -7145,7 +7145,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TZA</t>
+          <t>TZA</t>
         </is>
       </c>
     </row>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> THA</t>
+          <t>THA</t>
         </is>
       </c>
     </row>
@@ -7213,7 +7213,7 @@
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TLS</t>
+          <t>TLS</t>
         </is>
       </c>
     </row>
@@ -7249,7 +7249,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TGO</t>
+          <t>TGO</t>
         </is>
       </c>
     </row>
@@ -7285,7 +7285,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TTO</t>
+          <t>TTO</t>
         </is>
       </c>
     </row>
@@ -7321,7 +7321,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TUN</t>
+          <t>TUN</t>
         </is>
       </c>
     </row>
@@ -7357,7 +7357,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TUR</t>
+          <t>TUR</t>
         </is>
       </c>
     </row>
@@ -7393,7 +7393,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TCA</t>
+          <t>TCA</t>
         </is>
       </c>
     </row>
@@ -7429,7 +7429,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t xml:space="preserve"> UGA</t>
+          <t>UGA</t>
         </is>
       </c>
     </row>
@@ -7461,7 +7461,7 @@
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GBR</t>
+          <t>GBR</t>
         </is>
       </c>
     </row>
@@ -7497,7 +7497,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t xml:space="preserve"> UKR</t>
+          <t>UKR</t>
         </is>
       </c>
     </row>
@@ -7533,7 +7533,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ARE</t>
+          <t>ARE</t>
         </is>
       </c>
     </row>
@@ -7569,7 +7569,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t xml:space="preserve"> URY</t>
+          <t>URY</t>
         </is>
       </c>
     </row>
@@ -7605,7 +7605,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t xml:space="preserve"> USA</t>
+          <t>USA</t>
         </is>
       </c>
     </row>
@@ -7641,7 +7641,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t xml:space="preserve"> UZB</t>
+          <t>UZB</t>
         </is>
       </c>
     </row>
@@ -7677,7 +7677,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VEN</t>
+          <t>VEN</t>
         </is>
       </c>
     </row>
@@ -7713,7 +7713,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VNM</t>
+          <t>VNM</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ESH</t>
+          <t>ESH</t>
         </is>
       </c>
     </row>
@@ -7785,7 +7785,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t xml:space="preserve"> YEM</t>
+          <t>YEM</t>
         </is>
       </c>
     </row>
@@ -7821,7 +7821,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ZMB</t>
+          <t>ZMB</t>
         </is>
       </c>
     </row>
@@ -7857,7 +7857,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ZWE</t>
+          <t>ZWE</t>
         </is>
       </c>
     </row>
